--- a/Agenda Luis Alberto Ardila Páez.xlsx
+++ b/Agenda Luis Alberto Ardila Páez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu1sA\Desktop\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8560EB-3FD6-4F47-801F-36FF52114213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C40ADE-7640-41A1-A9FE-C0F40D3C4B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
   <si>
     <t>SUNDAY</t>
   </si>
@@ -72,19 +72,34 @@
     <t>FIN</t>
   </si>
   <si>
-    <t>Lecto escritura</t>
+    <t>---</t>
   </si>
   <si>
-    <t>Lab informatica</t>
+    <t>LECTO-ESCRITURA</t>
   </si>
   <si>
-    <t>Tenis</t>
+    <t>LAB-INFORMATICA</t>
   </si>
   <si>
-    <t>Matematicas</t>
+    <t>PRACTICA DE TENNIS</t>
   </si>
   <si>
-    <t>---</t>
+    <t>INFORMATICA II</t>
+  </si>
+  <si>
+    <t>INGLES III</t>
+  </si>
+  <si>
+    <t>CALCULO INTEGRAL</t>
+  </si>
+  <si>
+    <t>FISICA MECANICA</t>
+  </si>
+  <si>
+    <t>ALGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALCULO INTEGRAL </t>
   </si>
 </sst>
 </file>
@@ -92,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -170,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -437,30 +452,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -472,64 +470,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="hair">
         <color auto="1"/>
@@ -566,52 +506,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -624,10 +527,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -642,38 +545,8 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
       <bottom style="hair">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,21 +583,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -737,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,12 +604,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,15 +612,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,188 +732,317 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -992,6 +1075,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD60093"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1309,7 +1397,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1325,50 +1413,50 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14">
+      <c r="C2" s="45"/>
+      <c r="D2" s="39">
         <v>44958</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="28">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="36">
         <v>44986</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="17"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="58">
+      <c r="C3" s="43"/>
+      <c r="D3" s="31">
         <v>12</v>
       </c>
       <c r="E3" s="2">
@@ -1386,10 +1474,10 @@
       <c r="I3" s="2">
         <v>17</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="34">
         <v>18</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="31">
         <v>19</v>
       </c>
       <c r="L3" s="2">
@@ -1407,19 +1495,19 @@
       <c r="P3" s="2">
         <v>24</v>
       </c>
-      <c r="Q3" s="63">
+      <c r="Q3" s="34">
         <v>25</v>
       </c>
-      <c r="R3" s="63">
+      <c r="R3" s="34">
         <v>26</v>
       </c>
       <c r="S3" s="2">
         <v>27</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="9">
         <v>28</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="18">
         <v>1</v>
       </c>
       <c r="V3" s="2">
@@ -1452,173 +1540,173 @@
       <c r="AE3" s="2">
         <v>11</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AC4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="24" t="s">
+      <c r="AF4" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25">
+    <row r="5" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15">
         <v>0.25</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="60" t="str">
+      <c r="D5" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
-        <v>Matematicas</v>
-      </c>
-      <c r="E5" s="38" t="str">
+        <v>---</v>
+      </c>
+      <c r="E5" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="F5" s="38" t="str">
+      <c r="F5" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="G5" s="38" t="str">
+      <c r="G5" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="H5" s="38" t="str">
+      <c r="H5" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="I5" s="38" t="str">
+      <c r="I5" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="J5" s="55" t="str">
+      <c r="J5" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="K5" s="55" t="str">
+      <c r="K5" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
-        <v>Matematicas</v>
-      </c>
-      <c r="L5" s="46" t="str">
+        <v>---</v>
+      </c>
+      <c r="L5" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="M5" s="46" t="str">
+      <c r="M5" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="N5" s="46" t="str">
+      <c r="N5" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="O5" s="46" t="str">
+      <c r="O5" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="P5" s="46" t="str">
+      <c r="P5" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="Q5" s="55" t="str">
+      <c r="Q5" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="R5" s="55" t="str">
+      <c r="R5" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
-        <v>Matematicas</v>
-      </c>
-      <c r="S5" s="46" t="str">
+        <v>---</v>
+      </c>
+      <c r="S5" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
@@ -1626,919 +1714,919 @@
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="U5" s="48" t="str">
+      <c r="U5" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="V5" s="46" t="str">
+      <c r="V5" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="W5" s="46" t="str">
+      <c r="W5" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="X5" s="55" t="str">
+      <c r="X5" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="Y5" s="55" t="str">
+      <c r="Y5" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
-        <v>Matematicas</v>
-      </c>
-      <c r="Z5" s="67" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z5" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="AA5" s="46" t="str">
+      <c r="AA5" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="AB5" s="46" t="str">
+      <c r="AB5" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="AC5" s="46" t="str">
+      <c r="AC5" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="AD5" s="46" t="str">
+      <c r="AD5" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="AE5" s="55" t="str">
+      <c r="AE5" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="AF5" s="70" t="str">
+      <c r="AF5" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
-        <v>Matematicas</v>
+        <v>---</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26">
+    <row r="6" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="29">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="61" t="str">
+      <c r="D6" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="E6" s="39" t="str">
+      <c r="E6" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="F6" s="39" t="str">
+      <c r="F6" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="G6" s="39" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="G6" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="H6" s="39" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="H6" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="I6" s="39" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="I6" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="J6" s="56" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="J6" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
         <v>---</v>
       </c>
-      <c r="K6" s="65" t="str">
+      <c r="K6" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="N6" s="4" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="N6" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="O6" s="4" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="O6" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="P6" s="4" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="P6" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="Q6" s="65" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="Q6" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
         <v>---</v>
       </c>
-      <c r="R6" s="65" t="str">
+      <c r="R6" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="T6" s="49" t="str">
+      <c r="T6" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="U6" s="50" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="U6" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="V6" s="3" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="V6" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="W6" s="3" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="W6" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="X6" s="56" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="X6" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
         <v>---</v>
       </c>
-      <c r="Y6" s="56" t="str">
+      <c r="Y6" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="Z6" s="68" t="str">
+      <c r="Z6" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="AA6" s="3" t="str">
+      <c r="AA6" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AB6" s="3" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="AB6" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AC6" s="3" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="AC6" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AD6" s="3" t="str">
+        <v>INFORMATICA II</v>
+      </c>
+      <c r="AD6" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AE6" s="56" t="str">
+        <v>FISICA MECANICA</v>
+      </c>
+      <c r="AE6" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
         <v>---</v>
       </c>
-      <c r="AF6" s="71" t="str">
+      <c r="AF6" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26">
+    <row r="7" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="29">
         <v>0.5</v>
       </c>
-      <c r="D7" s="61" t="str">
+      <c r="D7" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="E7" s="39" t="str">
+      <c r="E7" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
-        <v>Lecto escritura</v>
-      </c>
-      <c r="F7" s="39" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="F7" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="G7" s="39" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="G7" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="H7" s="39" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="H7" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="I7" s="39" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="I7" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="J7" s="56" t="str">
+      <c r="J7" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="K7" s="56" t="str">
+      <c r="K7" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="L7" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
-        <v>Lecto escritura</v>
-      </c>
-      <c r="M7" s="3" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="M7" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="N7" s="3" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="N7" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="O7" s="3" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="O7" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="P7" s="3" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="P7" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="Q7" s="56" t="str">
+      <c r="Q7" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="R7" s="56" t="str">
+      <c r="R7" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="S7" s="3" t="str">
+      <c r="S7" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
-        <v>Lecto escritura</v>
-      </c>
-      <c r="T7" s="51" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="T7" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="U7" s="50" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="U7" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="V7" s="3" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="V7" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="W7" s="3" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="W7" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="X7" s="56" t="str">
+      <c r="X7" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="Y7" s="56" t="str">
+      <c r="Y7" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="Z7" s="68" t="str">
+      <c r="Z7" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
-        <v>Lecto escritura</v>
-      </c>
-      <c r="AA7" s="3" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="AA7" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AB7" s="3" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="AB7" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AC7" s="3" t="str">
+        <v>LECTO-ESCRITURA</v>
+      </c>
+      <c r="AC7" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AD7" s="3" t="str">
+        <v>INGLES III</v>
+      </c>
+      <c r="AD7" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="AE7" s="56" t="str">
+      <c r="AE7" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="AF7" s="71" t="str">
+      <c r="AF7" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26">
+    <row r="8" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
         <v>0.5</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="29">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D8" s="61" t="str">
+      <c r="D8" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="E8" s="39" t="str">
+      <c r="E8" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="G8" s="39" t="str">
+      <c r="G8" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="I8" s="39" t="str">
+      <c r="I8" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="J8" s="56" t="str">
+      <c r="J8" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="K8" s="56" t="str">
+      <c r="K8" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="L8" s="3" t="str">
+      <c r="L8" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="M8" s="3" t="str">
+      <c r="M8" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="N8" s="3" t="str">
+      <c r="N8" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="O8" s="3" t="str">
+      <c r="O8" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="P8" s="3" t="str">
+      <c r="P8" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="Q8" s="56" t="str">
+      <c r="Q8" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="R8" s="56" t="str">
+      <c r="R8" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="S8" s="3" t="str">
+      <c r="S8" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="T8" s="51" t="str">
+      <c r="T8" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="U8" s="50" t="str">
+      <c r="U8" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="V8" s="3" t="str">
+      <c r="V8" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="W8" s="3" t="str">
+      <c r="W8" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="X8" s="56" t="str">
+      <c r="X8" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="Y8" s="56" t="str">
+      <c r="Y8" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="Z8" s="68" t="str">
+      <c r="Z8" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="AA8" s="3" t="str">
+      <c r="AA8" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="AB8" s="3" t="str">
+      <c r="AB8" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="AC8" s="3" t="str">
+      <c r="AC8" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="AD8" s="3" t="str">
+      <c r="AD8" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="AE8" s="56" t="str">
+      <c r="AE8" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="AF8" s="71" t="str">
+      <c r="AF8" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
+    <row r="9" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="61" t="str">
+      <c r="D9" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="E9" s="39" t="str">
+      <c r="E9" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
-        <v>Lab informatica</v>
-      </c>
-      <c r="F9" s="39" t="str">
+        <v>LAB-INFORMATICA</v>
+      </c>
+      <c r="F9" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="G9" s="39" t="str">
+        <v>CALCULO INTEGRAL</v>
+      </c>
+      <c r="G9" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="H9" s="39" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="H9" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="I9" s="39" t="str">
+        <v xml:space="preserve">CALCULO INTEGRAL </v>
+      </c>
+      <c r="I9" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="J9" s="56" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="J9" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="K9" s="56" t="str">
+      <c r="K9" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="L9" s="3" t="str">
+      <c r="L9" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
-        <v>Lab informatica</v>
-      </c>
-      <c r="M9" s="3" t="str">
+        <v>LAB-INFORMATICA</v>
+      </c>
+      <c r="M9" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="N9" s="3" t="str">
+        <v>CALCULO INTEGRAL</v>
+      </c>
+      <c r="N9" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="O9" s="3" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="O9" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="P9" s="3" t="str">
+        <v xml:space="preserve">CALCULO INTEGRAL </v>
+      </c>
+      <c r="P9" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="Q9" s="56" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="Q9" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="R9" s="56" t="str">
+      <c r="R9" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="S9" s="3" t="str">
+      <c r="S9" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
-        <v>Lab informatica</v>
-      </c>
-      <c r="T9" s="51" t="str">
+        <v>LAB-INFORMATICA</v>
+      </c>
+      <c r="T9" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="U9" s="50" t="str">
+        <v>CALCULO INTEGRAL</v>
+      </c>
+      <c r="U9" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="V9" s="3" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="V9" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="W9" s="3" t="str">
+        <v xml:space="preserve">CALCULO INTEGRAL </v>
+      </c>
+      <c r="W9" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="X9" s="56" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="X9" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="Y9" s="56" t="str">
+      <c r="Y9" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="Z9" s="68" t="str">
+      <c r="Z9" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
-        <v>Lab informatica</v>
-      </c>
-      <c r="AA9" s="3" t="str">
+        <v>LAB-INFORMATICA</v>
+      </c>
+      <c r="AA9" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AB9" s="3" t="str">
+        <v>CALCULO INTEGRAL</v>
+      </c>
+      <c r="AB9" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AC9" s="3" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="AC9" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AD9" s="3" t="str">
+        <v xml:space="preserve">CALCULO INTEGRAL </v>
+      </c>
+      <c r="AD9" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AE9" s="56" t="str">
+        <v>ALGEBRA LINEAL</v>
+      </c>
+      <c r="AE9" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="AF9" s="71" t="str">
+      <c r="AF9" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
+    <row r="10" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="29">
         <v>0.75</v>
       </c>
-      <c r="D10" s="61" t="str">
+      <c r="D10" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="E10" s="39" t="str">
+      <c r="E10" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
-        <v>Tenis</v>
-      </c>
-      <c r="F10" s="39" t="str">
+        <v>PRACTICA DE TENNIS</v>
+      </c>
+      <c r="F10" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
         <v>---</v>
       </c>
-      <c r="G10" s="39" t="str">
+      <c r="G10" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
         <v>---</v>
       </c>
-      <c r="H10" s="39" t="str">
+      <c r="H10" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
         <v>---</v>
       </c>
-      <c r="I10" s="39" t="str">
+      <c r="I10" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
         <v>---</v>
       </c>
-      <c r="J10" s="56" t="str">
+      <c r="J10" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="K10" s="56" t="str">
+      <c r="K10" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="L10" s="3" t="str">
+      <c r="L10" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
-        <v>Tenis</v>
-      </c>
-      <c r="M10" s="3" t="str">
+        <v>PRACTICA DE TENNIS</v>
+      </c>
+      <c r="M10" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
         <v>---</v>
       </c>
-      <c r="N10" s="3" t="str">
+      <c r="N10" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
         <v>---</v>
       </c>
-      <c r="O10" s="3" t="str">
+      <c r="O10" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
         <v>---</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
         <v>---</v>
       </c>
-      <c r="Q10" s="56" t="str">
+      <c r="Q10" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="R10" s="56" t="str">
+      <c r="R10" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
-        <v>Tenis</v>
-      </c>
-      <c r="T10" s="51" t="str">
+        <v>PRACTICA DE TENNIS</v>
+      </c>
+      <c r="T10" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
         <v>---</v>
       </c>
-      <c r="U10" s="50" t="str">
+      <c r="U10" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
         <v>---</v>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
         <v>---</v>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
         <v>---</v>
       </c>
-      <c r="X10" s="56" t="str">
+      <c r="X10" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="Y10" s="56" t="str">
+      <c r="Y10" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="Z10" s="68" t="str">
+      <c r="Z10" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
-        <v>Tenis</v>
-      </c>
-      <c r="AA10" s="3" t="str">
+        <v>PRACTICA DE TENNIS</v>
+      </c>
+      <c r="AA10" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
         <v>---</v>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
         <v>---</v>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
         <v>---</v>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
         <v>---</v>
       </c>
-      <c r="AE10" s="56" t="str">
+      <c r="AE10" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="AF10" s="71" t="str">
+      <c r="AF10" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26">
+    <row r="11" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16">
         <v>0.75</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="29">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D11" s="61" t="str">
+      <c r="D11" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="E11" s="39" t="str">
+      <c r="E11" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="F11" s="39" t="str">
+      <c r="F11" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="G11" s="39" t="str">
+      <c r="G11" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="H11" s="39" t="str">
+      <c r="H11" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="I11" s="39" t="str">
+      <c r="I11" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="J11" s="56" t="str">
+      <c r="J11" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="K11" s="56" t="str">
+      <c r="K11" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="L11" s="3" t="str">
+      <c r="L11" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="N11" s="3" t="str">
+      <c r="N11" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="O11" s="3" t="str">
+      <c r="O11" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="P11" s="3" t="str">
+      <c r="P11" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="Q11" s="56" t="str">
+      <c r="Q11" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="R11" s="56" t="str">
+      <c r="R11" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="S11" s="3" t="str">
+      <c r="S11" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="T11" s="51" t="str">
+      <c r="T11" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="U11" s="50" t="str">
+      <c r="U11" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="V11" s="3" t="str">
+      <c r="V11" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="W11" s="3" t="str">
+      <c r="W11" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="X11" s="56" t="str">
+      <c r="X11" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="Y11" s="56" t="str">
+      <c r="Y11" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="Z11" s="68" t="str">
+      <c r="Z11" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="AA11" s="3" t="str">
+      <c r="AA11" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="AB11" s="3" t="str">
+      <c r="AB11" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="AC11" s="3" t="str">
+      <c r="AC11" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="AD11" s="3" t="str">
+      <c r="AD11" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="AE11" s="56" t="str">
+      <c r="AE11" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="AF11" s="71" t="str">
+      <c r="AF11" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27">
+      <c r="B12" s="17">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="30">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D12" s="62" t="str">
+      <c r="D12" s="47" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="47" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="F12" s="40" t="str">
+      <c r="F12" s="47" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="G12" s="40" t="str">
+      <c r="G12" s="47" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="H12" s="40" t="str">
+      <c r="H12" s="47" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="I12" s="40" t="str">
+      <c r="I12" s="47" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="J12" s="66" t="str">
+      <c r="J12" s="47" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="K12" s="57" t="str">
+      <c r="K12" s="47" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="L12" s="52" t="str">
+      <c r="L12" s="47" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="M12" s="52" t="str">
+      <c r="M12" s="47" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="N12" s="52" t="str">
+      <c r="N12" s="47" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="O12" s="52" t="str">
+      <c r="O12" s="47" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="P12" s="52" t="str">
+      <c r="P12" s="47" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="Q12" s="57" t="str">
+      <c r="Q12" s="47" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="R12" s="57" t="str">
+      <c r="R12" s="47" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="S12" s="52" t="str">
+      <c r="S12" s="47" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="T12" s="53" t="str">
+      <c r="T12" s="47" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="U12" s="54" t="str">
+      <c r="U12" s="47" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="V12" s="52" t="str">
+      <c r="V12" s="47" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="W12" s="52" t="str">
+      <c r="W12" s="47" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="X12" s="57" t="str">
+      <c r="X12" s="47" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="Y12" s="57" t="str">
+      <c r="Y12" s="47" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="Z12" s="69" t="str">
+      <c r="Z12" s="47" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="AA12" s="52" t="str">
+      <c r="AA12" s="47" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="AB12" s="52" t="str">
+      <c r="AB12" s="47" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="AC12" s="52" t="str">
+      <c r="AC12" s="47" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="AD12" s="52" t="str">
+      <c r="AD12" s="47" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="AE12" s="57" t="str">
+      <c r="AE12" s="47" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="AF12" s="72" t="str">
+      <c r="AF12" s="47" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
@@ -2552,11 +2640,40 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Matematicas">
-      <formula>NOT(ISERROR(SEARCH("Matematicas",D5)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="LECTO-ESCRITURA">
+      <formula>NOT(ISERROR(SEARCH("LECTO-ESCRITURA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Tenis">
-      <formula>NOT(ISERROR(SEARCH("Tenis",D5)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PRACTICA DE TENNIS">
+      <formula>NOT(ISERROR(SEARCH("PRACTICA DE TENNIS",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="CALCULO INTEGRAL">
+      <formula>NOT(ISERROR(SEARCH("CALCULO INTEGRAL",H8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:AF12">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="CALCULO INTEGRAL">
+      <formula>NOT(ISERROR(SEARCH("CALCULO INTEGRAL",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:AF12">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="INFORMATICA II">
+      <formula>NOT(ISERROR(SEARCH("INFORMATICA II",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="INGLES III">
+      <formula>NOT(ISERROR(SEARCH("INGLES III",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FISICA MECANICA">
+      <formula>NOT(ISERROR(SEARCH("FISICA MECANICA",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="LAB-INFORMATICA">
+      <formula>NOT(ISERROR(SEARCH("LAB-INFORMATICA",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:AF12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ALGEBRA LINEAL">
+      <formula>NOT(ISERROR(SEARCH("ALGEBRA LINEAL",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2572,7 +2689,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,266 +2700,266 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="21">
         <v>0.25</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>14</v>
+      <c r="C3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="16">
         <v>0.5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="A7" s="23">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="A8" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="24">
         <v>0.75</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>15</v>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="A9" s="23">
         <f>+B8</f>
         <v>0.75</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+      <c r="A10" s="25">
         <f>+B9</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>15</v>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Agenda Luis Alberto Ardila Páez.xlsx
+++ b/Agenda Luis Alberto Ardila Páez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu1sA\Desktop\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C40ADE-7640-41A1-A9FE-C0F40D3C4B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DFDC83-31B4-45F6-B8D9-4A8752556F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
+    <workbookView xWindow="4440" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
   <dimension ref="B1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>

--- a/Agenda Luis Alberto Ardila Páez.xlsx
+++ b/Agenda Luis Alberto Ardila Páez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu1sA\Desktop\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DFDC83-31B4-45F6-B8D9-4A8752556F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74735243-EC21-4E0C-B441-F3D84C1087CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>SUNDAY</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">CALCULO INTEGRAL </t>
+  </si>
+  <si>
+    <t>GYM</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,6 +705,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,18 +737,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
     <dxf>
       <font>
         <b val="0"/>
@@ -751,7 +751,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD60093"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -836,6 +836,30 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
         </patternFill>
       </fill>
     </dxf>
@@ -943,7 +967,91 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -992,84 +1100,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1394,10 +1424,10 @@
   <dimension ref="B1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1413,49 +1443,49 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="39">
+      <c r="C2" s="46"/>
+      <c r="D2" s="40">
         <v>44958</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="36">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="37">
         <v>44986</v>
       </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="39"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="31">
         <v>12</v>
       </c>
@@ -1650,115 +1680,115 @@
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
         <v>---</v>
       </c>
-      <c r="E5" s="47" t="str">
+      <c r="E5" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="F5" s="47" t="str">
+      <c r="F5" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="G5" s="47" t="str">
+      <c r="G5" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="H5" s="47" t="str">
+      <c r="H5" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="I5" s="47" t="str">
+      <c r="I5" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="J5" s="47" t="str">
+      <c r="J5" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="K5" s="47" t="str">
+      <c r="K5" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
         <v>---</v>
       </c>
-      <c r="L5" s="47" t="str">
+      <c r="L5" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="M5" s="47" t="str">
+      <c r="M5" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="N5" s="47" t="str">
+      <c r="N5" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="O5" s="47" t="str">
+      <c r="O5" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="P5" s="47" t="str">
+      <c r="P5" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="Q5" s="47" t="str">
+      <c r="Q5" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="R5" s="47" t="str">
+      <c r="R5" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
         <v>---</v>
       </c>
-      <c r="S5" s="47" t="str">
+      <c r="S5" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="T5" s="47" t="str">
+      <c r="T5" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="U5" s="47" t="str">
+      <c r="U5" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="V5" s="47" t="str">
+      <c r="V5" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="W5" s="47" t="str">
+      <c r="W5" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="X5" s="47" t="str">
+      <c r="X5" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="Y5" s="47" t="str">
+      <c r="Y5" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
         <v>---</v>
       </c>
-      <c r="Z5" s="47" t="str">
+      <c r="Z5" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B5=Calendario!$A3),Calendario!$C3,"")</f>
         <v>---</v>
       </c>
-      <c r="AA5" s="47" t="str">
+      <c r="AA5" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B5=Calendario!$A3),Calendario!$D3,"")</f>
         <v>---</v>
       </c>
-      <c r="AB5" s="47" t="str">
+      <c r="AB5" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B5=Calendario!$A3),Calendario!$E3,"")</f>
         <v>---</v>
       </c>
-      <c r="AC5" s="47" t="str">
+      <c r="AC5" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B5=Calendario!$A3),Calendario!$F3,"")</f>
         <v>---</v>
       </c>
-      <c r="AD5" s="47" t="str">
+      <c r="AD5" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B5=Calendario!$A3),Calendario!$G3,"")</f>
         <v>---</v>
       </c>
-      <c r="AE5" s="47" t="str">
+      <c r="AE5" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B5=Calendario!$A3),Calendario!$H3,"")</f>
         <v>---</v>
       </c>
-      <c r="AF5" s="47" t="str">
+      <c r="AF5" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B5=Calendario!$A3),Calendario!$I3,"")</f>
         <v>---</v>
       </c>
@@ -1770,119 +1800,119 @@
       <c r="C6" s="29">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="47" t="str">
+      <c r="D6" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="E6" s="47" t="str">
+      <c r="E6" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="F6" s="47" t="str">
+      <c r="F6" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="G6" s="47" t="str">
+      <c r="G6" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="H6" s="47" t="str">
+      <c r="H6" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="I6" s="47" t="str">
+      <c r="I6" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="J6" s="47" t="str">
+      <c r="J6" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="K6" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="K6" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="L6" s="47" t="str">
+      <c r="L6" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="M6" s="47" t="str">
+      <c r="M6" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="N6" s="47" t="str">
+      <c r="N6" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="O6" s="47" t="str">
+      <c r="O6" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="P6" s="47" t="str">
+      <c r="P6" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="Q6" s="47" t="str">
+      <c r="Q6" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="R6" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="R6" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="S6" s="47" t="str">
+      <c r="S6" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="T6" s="47" t="str">
+      <c r="T6" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="U6" s="47" t="str">
+      <c r="U6" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="V6" s="47" t="str">
+      <c r="V6" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="W6" s="47" t="str">
+      <c r="W6" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="X6" s="47" t="str">
+      <c r="X6" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="Y6" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="Y6" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
-      <c r="Z6" s="47" t="str">
+      <c r="Z6" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
         <v>---</v>
       </c>
-      <c r="AA6" s="47" t="str">
+      <c r="AA6" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B6=Calendario!$A4),Calendario!$D4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="AB6" s="47" t="str">
+      <c r="AB6" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B6=Calendario!$A4),Calendario!$E4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="AC6" s="47" t="str">
+      <c r="AC6" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B6=Calendario!$A4),Calendario!$F4,"")</f>
         <v>INFORMATICA II</v>
       </c>
-      <c r="AD6" s="47" t="str">
+      <c r="AD6" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B6=Calendario!$A4),Calendario!$G4,"")</f>
         <v>FISICA MECANICA</v>
       </c>
-      <c r="AE6" s="47" t="str">
+      <c r="AE6" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B6=Calendario!$A4),Calendario!$H4,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AF6" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="AF6" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
         <v>---</v>
       </c>
@@ -1894,119 +1924,119 @@
       <c r="C7" s="29">
         <v>0.5</v>
       </c>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="E7" s="47" t="str">
+      <c r="E7" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="F7" s="47" t="str">
+      <c r="F7" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="G7" s="47" t="str">
+      <c r="G7" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="H7" s="47" t="str">
+      <c r="H7" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="I7" s="47" t="str">
+      <c r="I7" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="J7" s="47" t="str">
+      <c r="J7" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="K7" s="47" t="str">
+      <c r="K7" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="L7" s="47" t="str">
+      <c r="L7" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="M7" s="47" t="str">
+      <c r="M7" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="N7" s="47" t="str">
+      <c r="N7" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="O7" s="47" t="str">
+      <c r="O7" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="P7" s="47" t="str">
+      <c r="P7" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="Q7" s="47" t="str">
+      <c r="Q7" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="R7" s="47" t="str">
+      <c r="R7" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="S7" s="47" t="str">
+      <c r="S7" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="T7" s="47" t="str">
+      <c r="T7" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="U7" s="47" t="str">
+      <c r="U7" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="V7" s="47" t="str">
+      <c r="V7" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="W7" s="47" t="str">
+      <c r="W7" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="X7" s="47" t="str">
+      <c r="X7" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="Y7" s="47" t="str">
+      <c r="Y7" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
-      <c r="Z7" s="47" t="str">
+      <c r="Z7" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B7=Calendario!$A5),Calendario!$C5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="AA7" s="47" t="str">
+      <c r="AA7" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B7=Calendario!$A5),Calendario!$D5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="AB7" s="47" t="str">
+      <c r="AB7" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B7=Calendario!$A5),Calendario!$E5,"")</f>
         <v>LECTO-ESCRITURA</v>
       </c>
-      <c r="AC7" s="47" t="str">
+      <c r="AC7" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="AD7" s="47" t="str">
+      <c r="AD7" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
         <v>---</v>
       </c>
-      <c r="AE7" s="47" t="str">
+      <c r="AE7" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
         <v>---</v>
       </c>
-      <c r="AF7" s="47" t="str">
+      <c r="AF7" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B7=Calendario!$A5),Calendario!$I5,"")</f>
         <v>---</v>
       </c>
@@ -2018,119 +2048,119 @@
       <c r="C8" s="29">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D8" s="47" t="str">
+      <c r="D8" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="E8" s="47" t="str">
+      <c r="E8" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="F8" s="47" t="str">
+      <c r="F8" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="G8" s="47" t="str">
+      <c r="G8" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="H8" s="47" t="str">
+      <c r="H8" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="I8" s="47" t="str">
+      <c r="I8" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="J8" s="47" t="str">
+      <c r="J8" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="L8" s="47" t="str">
+      <c r="L8" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="M8" s="47" t="str">
+      <c r="M8" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="N8" s="47" t="str">
+      <c r="N8" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="O8" s="47" t="str">
+      <c r="O8" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="P8" s="47" t="str">
+      <c r="P8" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="Q8" s="47" t="str">
+      <c r="Q8" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="R8" s="47" t="str">
+      <c r="R8" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="S8" s="47" t="str">
+      <c r="S8" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="T8" s="47" t="str">
+      <c r="T8" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="U8" s="47" t="str">
+      <c r="U8" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="V8" s="47" t="str">
+      <c r="V8" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="W8" s="47" t="str">
+      <c r="W8" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="X8" s="47" t="str">
+      <c r="X8" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="Y8" s="47" t="str">
+      <c r="Y8" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
-      <c r="Z8" s="47" t="str">
+      <c r="Z8" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B8=Calendario!$A6),Calendario!$C6,"")</f>
         <v>---</v>
       </c>
-      <c r="AA8" s="47" t="str">
+      <c r="AA8" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B8=Calendario!$A6),Calendario!$D6,"")</f>
         <v>---</v>
       </c>
-      <c r="AB8" s="47" t="str">
+      <c r="AB8" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B8=Calendario!$A6),Calendario!$E6,"")</f>
         <v>---</v>
       </c>
-      <c r="AC8" s="47" t="str">
+      <c r="AC8" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B8=Calendario!$A6),Calendario!$F6,"")</f>
         <v>---</v>
       </c>
-      <c r="AD8" s="47" t="str">
+      <c r="AD8" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B8=Calendario!$A6),Calendario!$G6,"")</f>
         <v>---</v>
       </c>
-      <c r="AE8" s="47" t="str">
+      <c r="AE8" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B8=Calendario!$A6),Calendario!$H6,"")</f>
         <v>---</v>
       </c>
-      <c r="AF8" s="47" t="str">
+      <c r="AF8" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B8=Calendario!$A6),Calendario!$I6,"")</f>
         <v>---</v>
       </c>
@@ -2142,119 +2172,119 @@
       <c r="C9" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="47" t="str">
+      <c r="D9" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="E9" s="47" t="str">
+      <c r="E9" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
         <v>LAB-INFORMATICA</v>
       </c>
-      <c r="F9" s="47" t="str">
+      <c r="F9" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
         <v>CALCULO INTEGRAL</v>
       </c>
-      <c r="G9" s="47" t="str">
+      <c r="G9" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="H9" s="47" t="str">
+      <c r="H9" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
         <v xml:space="preserve">CALCULO INTEGRAL </v>
       </c>
-      <c r="I9" s="47" t="str">
+      <c r="I9" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="J9" s="47" t="str">
+      <c r="J9" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="K9" s="47" t="str">
+      <c r="K9" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="L9" s="47" t="str">
+      <c r="L9" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
         <v>LAB-INFORMATICA</v>
       </c>
-      <c r="M9" s="47" t="str">
+      <c r="M9" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
         <v>CALCULO INTEGRAL</v>
       </c>
-      <c r="N9" s="47" t="str">
+      <c r="N9" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="O9" s="47" t="str">
+      <c r="O9" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
         <v xml:space="preserve">CALCULO INTEGRAL </v>
       </c>
-      <c r="P9" s="47" t="str">
+      <c r="P9" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="Q9" s="47" t="str">
+      <c r="Q9" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="R9" s="47" t="str">
+      <c r="R9" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="S9" s="47" t="str">
+      <c r="S9" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
         <v>LAB-INFORMATICA</v>
       </c>
-      <c r="T9" s="47" t="str">
+      <c r="T9" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
         <v>CALCULO INTEGRAL</v>
       </c>
-      <c r="U9" s="47" t="str">
+      <c r="U9" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="V9" s="47" t="str">
+      <c r="V9" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
         <v xml:space="preserve">CALCULO INTEGRAL </v>
       </c>
-      <c r="W9" s="47" t="str">
+      <c r="W9" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="X9" s="47" t="str">
+      <c r="X9" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="Y9" s="47" t="str">
+      <c r="Y9" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
-      <c r="Z9" s="47" t="str">
+      <c r="Z9" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
         <v>LAB-INFORMATICA</v>
       </c>
-      <c r="AA9" s="47" t="str">
+      <c r="AA9" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B9=Calendario!$A7),Calendario!$D7,"")</f>
         <v>CALCULO INTEGRAL</v>
       </c>
-      <c r="AB9" s="47" t="str">
+      <c r="AB9" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B9=Calendario!$A7),Calendario!$E7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="AC9" s="47" t="str">
+      <c r="AC9" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B9=Calendario!$A7),Calendario!$F7,"")</f>
         <v xml:space="preserve">CALCULO INTEGRAL </v>
       </c>
-      <c r="AD9" s="47" t="str">
+      <c r="AD9" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="AE9" s="47" t="str">
+      <c r="AE9" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
         <v>---</v>
       </c>
-      <c r="AF9" s="47" t="str">
+      <c r="AF9" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
         <v>---</v>
       </c>
@@ -2266,119 +2296,119 @@
       <c r="C10" s="29">
         <v>0.75</v>
       </c>
-      <c r="D10" s="47" t="str">
+      <c r="D10" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="E10" s="47" t="str">
+      <c r="E10" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
         <v>PRACTICA DE TENNIS</v>
       </c>
-      <c r="F10" s="47" t="str">
+      <c r="F10" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="G10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="G10" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="H10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="H10" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="I10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="I10" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="J10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="J10" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="K10" s="47" t="str">
+      <c r="K10" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="L10" s="47" t="str">
+      <c r="L10" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
         <v>PRACTICA DE TENNIS</v>
       </c>
-      <c r="M10" s="47" t="str">
+      <c r="M10" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="N10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="N10" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="O10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="O10" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="P10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="P10" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="Q10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="Q10" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="R10" s="47" t="str">
+      <c r="R10" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="S10" s="47" t="str">
+      <c r="S10" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
         <v>PRACTICA DE TENNIS</v>
       </c>
-      <c r="T10" s="47" t="str">
+      <c r="T10" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="U10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="U10" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="V10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="V10" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="W10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="W10" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="X10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="X10" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="Y10" s="47" t="str">
+      <c r="Y10" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
-      <c r="Z10" s="47" t="str">
+      <c r="Z10" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
         <v>PRACTICA DE TENNIS</v>
       </c>
-      <c r="AA10" s="47" t="str">
+      <c r="AA10" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B10=Calendario!$A8),Calendario!$D8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AB10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="AB10" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B10=Calendario!$A8),Calendario!$E8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AC10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="AC10" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B10=Calendario!$A8),Calendario!$F8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AD10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="AD10" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
-        <v>---</v>
-      </c>
-      <c r="AE10" s="47" t="str">
+        <v>GYM</v>
+      </c>
+      <c r="AE10" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>---</v>
       </c>
-      <c r="AF10" s="47" t="str">
+      <c r="AF10" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>---</v>
       </c>
@@ -2390,119 +2420,119 @@
       <c r="C11" s="29">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D11" s="47" t="str">
+      <c r="D11" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="E11" s="47" t="str">
+      <c r="E11" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="F11" s="47" t="str">
+      <c r="F11" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="G11" s="47" t="str">
+      <c r="G11" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="H11" s="47" t="str">
+      <c r="H11" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="I11" s="47" t="str">
+      <c r="I11" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="J11" s="47" t="str">
+      <c r="J11" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="K11" s="47" t="str">
+      <c r="K11" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="L11" s="47" t="str">
+      <c r="L11" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="M11" s="47" t="str">
+      <c r="M11" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="N11" s="47" t="str">
+      <c r="N11" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="O11" s="47" t="str">
+      <c r="O11" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="P11" s="47" t="str">
+      <c r="P11" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="Q11" s="47" t="str">
+      <c r="Q11" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="R11" s="47" t="str">
+      <c r="R11" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="S11" s="47" t="str">
+      <c r="S11" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="T11" s="47" t="str">
+      <c r="T11" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="U11" s="47" t="str">
+      <c r="U11" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="V11" s="47" t="str">
+      <c r="V11" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="W11" s="47" t="str">
+      <c r="W11" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="X11" s="47" t="str">
+      <c r="X11" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="Y11" s="47" t="str">
+      <c r="Y11" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="Z11" s="47" t="str">
+      <c r="Z11" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
         <v>---</v>
       </c>
-      <c r="AA11" s="47" t="str">
+      <c r="AA11" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
         <v>---</v>
       </c>
-      <c r="AB11" s="47" t="str">
+      <c r="AB11" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
         <v>---</v>
       </c>
-      <c r="AC11" s="47" t="str">
+      <c r="AC11" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
         <v>---</v>
       </c>
-      <c r="AD11" s="47" t="str">
+      <c r="AD11" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="AE11" s="47" t="str">
+      <c r="AE11" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
         <v>---</v>
       </c>
-      <c r="AF11" s="47" t="str">
+      <c r="AF11" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
@@ -2514,119 +2544,119 @@
       <c r="C12" s="30">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D12" s="47" t="str">
+      <c r="D12" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="E12" s="47" t="str">
+      <c r="E12" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="F12" s="47" t="str">
+      <c r="F12" s="33" t="str">
         <f>+IF(AND(F$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="G12" s="47" t="str">
+      <c r="G12" s="33" t="str">
         <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="H12" s="47" t="str">
+      <c r="H12" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="I12" s="47" t="str">
+      <c r="I12" s="33" t="str">
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="J12" s="47" t="str">
+      <c r="J12" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="K12" s="47" t="str">
+      <c r="K12" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="L12" s="47" t="str">
+      <c r="L12" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="M12" s="47" t="str">
+      <c r="M12" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="N12" s="47" t="str">
+      <c r="N12" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="O12" s="47" t="str">
+      <c r="O12" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="P12" s="47" t="str">
+      <c r="P12" s="33" t="str">
         <f>+IF(AND(P$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="Q12" s="47" t="str">
+      <c r="Q12" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="R12" s="47" t="str">
+      <c r="R12" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="S12" s="47" t="str">
+      <c r="S12" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="T12" s="47" t="str">
+      <c r="T12" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="U12" s="47" t="str">
+      <c r="U12" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="V12" s="47" t="str">
+      <c r="V12" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="W12" s="47" t="str">
+      <c r="W12" s="33" t="str">
         <f>+IF(AND(W$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="X12" s="47" t="str">
+      <c r="X12" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="Y12" s="47" t="str">
+      <c r="Y12" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
-      <c r="Z12" s="47" t="str">
+      <c r="Z12" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B12=Calendario!$A10),Calendario!$C10,"")</f>
         <v>---</v>
       </c>
-      <c r="AA12" s="47" t="str">
+      <c r="AA12" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B12=Calendario!$A10),Calendario!$D10,"")</f>
         <v>---</v>
       </c>
-      <c r="AB12" s="47" t="str">
+      <c r="AB12" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B12=Calendario!$A10),Calendario!$E10,"")</f>
         <v>---</v>
       </c>
-      <c r="AC12" s="47" t="str">
+      <c r="AC12" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B12=Calendario!$A10),Calendario!$F10,"")</f>
         <v>---</v>
       </c>
-      <c r="AD12" s="47" t="str">
+      <c r="AD12" s="33" t="str">
         <f>+IF(AND(AD$4="FRIDAY",Agenda!$B12=Calendario!$A10),Calendario!$G10,"")</f>
         <v>---</v>
       </c>
-      <c r="AE12" s="47" t="str">
+      <c r="AE12" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B12=Calendario!$A10),Calendario!$H10,"")</f>
         <v>---</v>
       </c>
-      <c r="AF12" s="47" t="str">
+      <c r="AF12" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B12=Calendario!$A10),Calendario!$I10,"")</f>
         <v>---</v>
       </c>
@@ -2640,40 +2670,50 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="LECTO-ESCRITURA">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="LECTO-ESCRITURA">
       <formula>NOT(ISERROR(SEARCH("LECTO-ESCRITURA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PRACTICA DE TENNIS">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="PRACTICA DE TENNIS">
       <formula>NOT(ISERROR(SEARCH("PRACTICA DE TENNIS",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="CALCULO INTEGRAL">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="CALCULO INTEGRAL">
       <formula>NOT(ISERROR(SEARCH("CALCULO INTEGRAL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="CALCULO INTEGRAL">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="CALCULO INTEGRAL">
       <formula>NOT(ISERROR(SEARCH("CALCULO INTEGRAL",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="INFORMATICA II">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="INFORMATICA II">
       <formula>NOT(ISERROR(SEARCH("INFORMATICA II",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="INGLES III">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="INGLES III">
       <formula>NOT(ISERROR(SEARCH("INGLES III",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FISICA MECANICA">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="FISICA MECANICA">
       <formula>NOT(ISERROR(SEARCH("FISICA MECANICA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="LAB-INFORMATICA">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="LAB-INFORMATICA">
       <formula>NOT(ISERROR(SEARCH("LAB-INFORMATICA",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AF12">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ALGEBRA LINEAL">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="ALGEBRA LINEAL">
       <formula>NOT(ISERROR(SEARCH("ALGEBRA LINEAL",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="GYM">
+      <formula>NOT(ISERROR(SEARCH("GYM",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:AF12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="GYM">
+      <formula>NOT(ISERROR(SEARCH("GYM",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,7 +2729,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2780,7 +2820,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>11</v>
@@ -2805,7 +2845,7 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2884,16 +2924,16 @@
         <v>14</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>11</v>

--- a/Agenda Luis Alberto Ardila Páez.xlsx
+++ b/Agenda Luis Alberto Ardila Páez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu1sA\Desktop\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74735243-EC21-4E0C-B441-F3D84C1087CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA15CCAF-85B3-481C-B32E-8394888D39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>SUNDAY</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>GYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTDIAR ALGEBRA LINEAL y CALCULO INTEGRAL </t>
+  </si>
+  <si>
+    <t>ESTUDIAR FISICA MECANICA Y ALGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDIAR ALGEBRA LINEAL Y CALCULO INTEGRAL </t>
+  </si>
+  <si>
+    <t>ESTUDIAR FISICA MECANICA</t>
+  </si>
+  <si>
+    <t>ESTUDIAR ALGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>ESTUDIAR FISICA MECANICA Y CALCULO INTEGRAL</t>
+  </si>
+  <si>
+    <t>ESTUDIAR LAS CALCULO INTEGRAL, ALGEBRA LINEAL Y FISICA MECANICA</t>
+  </si>
+  <si>
+    <t>ESTUDIAR CALCULO INTEGRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDIAR CALCULO INTEGRAL Y ALGEBRA </t>
   </si>
 </sst>
 </file>
@@ -598,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,12 +764,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -763,235 +793,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD60093"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD60093"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1424,10 +1226,10 @@
   <dimension ref="B1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1604,7 @@
       </c>
       <c r="D6" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="E6" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
@@ -1830,7 +1632,7 @@
       </c>
       <c r="K6" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="L6" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
@@ -1858,7 +1660,7 @@
       </c>
       <c r="R6" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="S6" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
@@ -1886,7 +1688,7 @@
       </c>
       <c r="Y6" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="Z6" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B6=Calendario!$A4),Calendario!$C4,"")</f>
@@ -1914,7 +1716,7 @@
       </c>
       <c r="AF6" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B6=Calendario!$A4),Calendario!$I4,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1944,9 +1746,8 @@
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B7=Calendario!$A5),Calendario!$F5,"")</f>
         <v>INGLES III</v>
       </c>
-      <c r="I7" s="33" t="str">
-        <f>+IF(AND(I$4="FRIDAY",Agenda!$B7=Calendario!$A5),Calendario!$G5,"")</f>
-        <v>---</v>
+      <c r="I7" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="33" t="str">
         <f>+IF(AND(J$4="SATURDAY",Agenda!$B7=Calendario!$A5),Calendario!$H5,"")</f>
@@ -2196,9 +1997,8 @@
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="J9" s="33" t="str">
-        <f>+IF(AND(J$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
-        <v>---</v>
+      <c r="J9" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
@@ -2226,7 +2026,7 @@
       </c>
       <c r="Q9" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR LAS CALCULO INTEGRAL, ALGEBRA LINEAL Y FISICA MECANICA</v>
       </c>
       <c r="R9" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
@@ -2254,7 +2054,7 @@
       </c>
       <c r="X9" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR LAS CALCULO INTEGRAL, ALGEBRA LINEAL Y FISICA MECANICA</v>
       </c>
       <c r="Y9" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
@@ -2282,7 +2082,7 @@
       </c>
       <c r="AE9" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B9=Calendario!$A7),Calendario!$H7,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR LAS CALCULO INTEGRAL, ALGEBRA LINEAL Y FISICA MECANICA</v>
       </c>
       <c r="AF9" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
@@ -2298,7 +2098,7 @@
       </c>
       <c r="D10" s="33" t="str">
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR CALCULO INTEGRAL</v>
       </c>
       <c r="E10" s="33" t="str">
         <f>+IF(AND(E$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
@@ -2320,13 +2120,12 @@
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
         <v>GYM</v>
       </c>
-      <c r="J10" s="33" t="str">
-        <f>+IF(AND(J$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
-        <v>---</v>
+      <c r="J10" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="K10" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR CALCULO INTEGRAL</v>
       </c>
       <c r="L10" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
@@ -2350,11 +2149,11 @@
       </c>
       <c r="Q10" s="33" t="str">
         <f>+IF(AND(Q$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR FISICA MECANICA</v>
       </c>
       <c r="R10" s="33" t="str">
         <f>+IF(AND(R$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR CALCULO INTEGRAL</v>
       </c>
       <c r="S10" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
@@ -2378,11 +2177,11 @@
       </c>
       <c r="X10" s="33" t="str">
         <f>+IF(AND(X$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR FISICA MECANICA</v>
       </c>
       <c r="Y10" s="33" t="str">
         <f>+IF(AND(Y$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR CALCULO INTEGRAL</v>
       </c>
       <c r="Z10" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B10=Calendario!$A8),Calendario!$C8,"")</f>
@@ -2406,11 +2205,11 @@
       </c>
       <c r="AE10" s="33" t="str">
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR FISICA MECANICA</v>
       </c>
       <c r="AF10" s="33" t="str">
         <f>+IF(AND(AF$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR CALCULO INTEGRAL</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2424,17 +2223,14 @@
         <f>+IF(AND(D$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
       </c>
-      <c r="E11" s="33" t="str">
-        <f>+IF(AND(E$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
-        <v>---</v>
-      </c>
-      <c r="F11" s="33" t="str">
-        <f>+IF(AND(F$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
-        <v>---</v>
-      </c>
-      <c r="G11" s="33" t="str">
-        <f>+IF(AND(G$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
-        <v>---</v>
+      <c r="E11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="H11" s="33" t="str">
         <f>+IF(AND(H$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
@@ -2454,15 +2250,15 @@
       </c>
       <c r="L11" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
-        <v>---</v>
+        <v xml:space="preserve">ESTUDIAR CALCULO INTEGRAL Y ALGEBRA </v>
       </c>
       <c r="M11" s="33" t="str">
         <f>+IF(AND(M$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR FISICA MECANICA</v>
       </c>
       <c r="N11" s="33" t="str">
         <f>+IF(AND(N$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="O11" s="33" t="str">
         <f>+IF(AND(O$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
@@ -2482,15 +2278,15 @@
       </c>
       <c r="S11" s="33" t="str">
         <f>+IF(AND(S$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
-        <v>---</v>
+        <v xml:space="preserve">ESTUDIAR CALCULO INTEGRAL Y ALGEBRA </v>
       </c>
       <c r="T11" s="33" t="str">
         <f>+IF(AND(T$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR FISICA MECANICA</v>
       </c>
       <c r="U11" s="33" t="str">
         <f>+IF(AND(U$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="V11" s="33" t="str">
         <f>+IF(AND(V$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
@@ -2510,15 +2306,15 @@
       </c>
       <c r="Z11" s="33" t="str">
         <f>+IF(AND(Z$4="MONDAY",Agenda!$B11=Calendario!$A9),Calendario!$C9,"")</f>
-        <v>---</v>
+        <v xml:space="preserve">ESTUDIAR CALCULO INTEGRAL Y ALGEBRA </v>
       </c>
       <c r="AA11" s="33" t="str">
         <f>+IF(AND(AA$4="TUESDAY",Agenda!$B11=Calendario!$A9),Calendario!$D9,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR FISICA MECANICA</v>
       </c>
       <c r="AB11" s="33" t="str">
         <f>+IF(AND(AB$4="WENDNESDAY",Agenda!$B11=Calendario!$A9),Calendario!$E9,"")</f>
-        <v>---</v>
+        <v>ESTUDIAR ALGEBRA LINEAL</v>
       </c>
       <c r="AC11" s="33" t="str">
         <f>+IF(AND(AC$4="THURSDAY",Agenda!$B11=Calendario!$A9),Calendario!$F9,"")</f>
@@ -2670,44 +2466,44 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="LECTO-ESCRITURA">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="LECTO-ESCRITURA">
       <formula>NOT(ISERROR(SEARCH("LECTO-ESCRITURA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="PRACTICA DE TENNIS">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="PRACTICA DE TENNIS">
       <formula>NOT(ISERROR(SEARCH("PRACTICA DE TENNIS",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="CALCULO INTEGRAL">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="CALCULO INTEGRAL">
       <formula>NOT(ISERROR(SEARCH("CALCULO INTEGRAL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="CALCULO INTEGRAL">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="CALCULO INTEGRAL">
       <formula>NOT(ISERROR(SEARCH("CALCULO INTEGRAL",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:AF12">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="INFORMATICA II">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="INFORMATICA II">
       <formula>NOT(ISERROR(SEARCH("INFORMATICA II",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="INGLES III">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="INGLES III">
       <formula>NOT(ISERROR(SEARCH("INGLES III",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="FISICA MECANICA">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="FISICA MECANICA">
       <formula>NOT(ISERROR(SEARCH("FISICA MECANICA",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="LAB-INFORMATICA">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="LAB-INFORMATICA">
       <formula>NOT(ISERROR(SEARCH("LAB-INFORMATICA",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AF12">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="ALGEBRA LINEAL">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="ALGEBRA LINEAL">
       <formula>NOT(ISERROR(SEARCH("ALGEBRA LINEAL",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="GYM">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="GYM">
       <formula>NOT(ISERROR(SEARCH("GYM",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,7 +2525,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2823,7 +2619,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2907,9 +2703,9 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2936,10 +2732,10 @@
         <v>21</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2951,13 +2747,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>

--- a/Agenda Luis Alberto Ardila Páez.xlsx
+++ b/Agenda Luis Alberto Ardila Páez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu1sA\Desktop\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA15CCAF-85B3-481C-B32E-8394888D39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A3865-CA5F-4F27-939B-4C0DA4DF0FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
   <si>
     <t>SUNDAY</t>
   </si>
@@ -120,9 +120,6 @@
     <t>ESTUDIAR ALGEBRA LINEAL</t>
   </si>
   <si>
-    <t>ESTUDIAR FISICA MECANICA Y CALCULO INTEGRAL</t>
-  </si>
-  <si>
     <t>ESTUDIAR LAS CALCULO INTEGRAL, ALGEBRA LINEAL Y FISICA MECANICA</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">ESTUDIAR CALCULO INTEGRAL Y ALGEBRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRACTICA 1 LAB-INFORMATICA </t>
   </si>
 </sst>
 </file>
@@ -735,6 +735,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,10 +1226,10 @@
   <dimension ref="B1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1245,49 +1245,49 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="40">
+      <c r="C2" s="47"/>
+      <c r="D2" s="41">
         <v>44958</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="37">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="38">
         <v>44986</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="31">
         <v>12</v>
       </c>
@@ -1998,11 +1998,10 @@
         <v>ALGEBRA LINEAL</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="33" t="str">
-        <f>+IF(AND(K$4="SUNDAY",Agenda!$B9=Calendario!$A7),Calendario!$I7,"")</f>
-        <v>---</v>
+        <v>26</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="L9" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
@@ -2121,7 +2120,7 @@
         <v>GYM</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K10" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
@@ -2226,7 +2225,7 @@
       <c r="E11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="33" t="s">
@@ -2240,9 +2239,8 @@
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="J11" s="33" t="str">
-        <f>+IF(AND(J$4="SATURDAY",Agenda!$B11=Calendario!$A9),Calendario!$H9,"")</f>
-        <v>---</v>
+      <c r="J11" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="K11" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
@@ -2703,7 +2701,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>11</v>
@@ -2735,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2747,7 +2745,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>

--- a/Agenda Luis Alberto Ardila Páez.xlsx
+++ b/Agenda Luis Alberto Ardila Páez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu1sA\Desktop\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A3865-CA5F-4F27-939B-4C0DA4DF0FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3505585-0D7A-4DF5-98B5-C4D756E2DD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D24C7FD-8250-470B-81A0-6ACEAF47D969}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
   <si>
     <t>SUNDAY</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">ESTUDIAR CALCULO INTEGRAL Y ALGEBRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRACTICA 1 LAB-INFORMATICA </t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1223,10 @@
   <dimension ref="B1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1997,12 +1994,8 @@
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B9=Calendario!$A7),Calendario!$G7,"")</f>
         <v>ALGEBRA LINEAL</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="33" t="str">
         <f>+IF(AND(L$4="MONDAY",Agenda!$B9=Calendario!$A7),Calendario!$C7,"")</f>
         <v>LAB-INFORMATICA</v>
@@ -2119,9 +2112,7 @@
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B10=Calendario!$A8),Calendario!$G8,"")</f>
         <v>GYM</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="J10" s="33"/>
       <c r="K10" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
         <v>ESTUDIAR CALCULO INTEGRAL</v>
@@ -2206,10 +2197,7 @@
         <f>+IF(AND(AE$4="SATURDAY",Agenda!$B10=Calendario!$A8),Calendario!$H8,"")</f>
         <v>ESTUDIAR FISICA MECANICA</v>
       </c>
-      <c r="AF10" s="33" t="str">
-        <f>+IF(AND(AF$4="SUNDAY",Agenda!$B10=Calendario!$A8),Calendario!$I8,"")</f>
-        <v>ESTUDIAR CALCULO INTEGRAL</v>
-      </c>
+      <c r="AF10" s="33"/>
     </row>
     <row r="11" spans="2:32" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16">
@@ -2239,9 +2227,7 @@
         <f>+IF(AND(I$4="FRIDAY",Agenda!$B11=Calendario!$A9),Calendario!$G9,"")</f>
         <v>---</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="J11" s="33"/>
       <c r="K11" s="33" t="str">
         <f>+IF(AND(K$4="SUNDAY",Agenda!$B11=Calendario!$A9),Calendario!$I9,"")</f>
         <v>---</v>
